--- a/testreport/3 Big mysteries/uni_cat_sigtest/x3_Big_mysteries_Is_respondent_human_.xlsx
+++ b/testreport/3 Big mysteries/uni_cat_sigtest/x3_Big_mysteries_Is_respondent_human_.xlsx
@@ -402,7 +402,7 @@
         <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0.768</v>
+        <v>0.792</v>
       </c>
     </row>
   </sheetData>
